--- a/home/Huong-Nha.xlsx
+++ b/home/Huong-Nha.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" tabRatio="427" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" tabRatio="427" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Hiện tại" sheetId="2" r:id="rId2"/>
     <sheet name="Làm lại" sheetId="3" r:id="rId3"/>
     <sheet name="Làm lại 2" sheetId="4" r:id="rId4"/>
+    <sheet name="Làm lại 3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,6 +25,38 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>6m</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>7m</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>2m</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12109,6 +12142,4368 @@
             <a:rPr lang="en-US" sz="1100"/>
             <a:t>G</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>486811</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>157198</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>239161</xdr:colOff>
+      <xdr:row>73</xdr:row>
+      <xdr:rowOff>162997</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Rectangle 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7802011" y="5491198"/>
+          <a:ext cx="4629150" cy="8578299"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>503339</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>17247</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>142510</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>140511</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9625358" y="10494747"/>
+          <a:ext cx="2679844" cy="1456764"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114301</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12040333" y="11180885"/>
+          <a:ext cx="255709" cy="744416"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>414337</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>231321</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>188259</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4071937" y="4760259"/>
+          <a:ext cx="12618584" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="1"/>
+            <a:t>ĐƯỜNG</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>140634</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>102534</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4338637" y="5474634"/>
+          <a:ext cx="3209925" cy="5486400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>71437</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>50146</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>53066</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>2521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Freeform 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="71437" y="240646"/>
+          <a:ext cx="3639229" cy="7191375"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst>
+            <a:gd name="connsiteX0" fmla="*/ 2095500 w 3696379"/>
+            <a:gd name="connsiteY0" fmla="*/ 0 h 7191375"/>
+            <a:gd name="connsiteX1" fmla="*/ 2667000 w 3696379"/>
+            <a:gd name="connsiteY1" fmla="*/ 3119438 h 7191375"/>
+            <a:gd name="connsiteX2" fmla="*/ 3429000 w 3696379"/>
+            <a:gd name="connsiteY2" fmla="*/ 3833813 h 7191375"/>
+            <a:gd name="connsiteX3" fmla="*/ 3405188 w 3696379"/>
+            <a:gd name="connsiteY3" fmla="*/ 6405563 h 7191375"/>
+            <a:gd name="connsiteX4" fmla="*/ 0 w 3696379"/>
+            <a:gd name="connsiteY4" fmla="*/ 7191375 h 7191375"/>
+          </a:gdLst>
+          <a:ahLst/>
+          <a:cxnLst>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX0" y="connsiteY0"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX1" y="connsiteY1"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX2" y="connsiteY2"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX3" y="connsiteY3"/>
+            </a:cxn>
+            <a:cxn ang="0">
+              <a:pos x="connsiteX4" y="connsiteY4"/>
+            </a:cxn>
+          </a:cxnLst>
+          <a:rect l="l" t="t" r="r" b="b"/>
+          <a:pathLst>
+            <a:path w="3696379" h="7191375">
+              <a:moveTo>
+                <a:pt x="2095500" y="0"/>
+              </a:moveTo>
+              <a:cubicBezTo>
+                <a:pt x="2270125" y="1240234"/>
+                <a:pt x="2444750" y="2480469"/>
+                <a:pt x="2667000" y="3119438"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2889250" y="3758407"/>
+                <a:pt x="3305969" y="3286126"/>
+                <a:pt x="3429000" y="3833813"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="3552031" y="4381501"/>
+                <a:pt x="3976688" y="5845969"/>
+                <a:pt x="3405188" y="6405563"/>
+              </a:cubicBezTo>
+              <a:cubicBezTo>
+                <a:pt x="2833688" y="6965157"/>
+                <a:pt x="1416844" y="7078266"/>
+                <a:pt x="0" y="7191375"/>
+              </a:cubicBezTo>
+            </a:path>
+          </a:pathLst>
+        </a:custGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B050"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>93009</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>93009</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Rectangle 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4665009"/>
+          <a:ext cx="2747962" cy="571500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>290512</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16809</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>35859</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Rectangle 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2728912" y="4207809"/>
+          <a:ext cx="1428750" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
+        </a:blipFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="3600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="C00000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>CẦU</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:srgbClr val="C00000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>468406</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>110378</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>244289</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>20731</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Rounded Rectangle 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7783606" y="5444378"/>
+          <a:ext cx="4652683" cy="291353"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>170890</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>338978</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>155202</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rounded Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9314890" y="5377143"/>
+          <a:ext cx="1387288" cy="493059"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CỔNG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>163287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>137272</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>20733</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Rounded Rectangle 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10376807" y="3973287"/>
+          <a:ext cx="733265" cy="619446"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Cộ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>t điện</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>-1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>20735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>177618</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="7589183" y="2185151"/>
+          <a:ext cx="4728883" cy="400051"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent4">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>ĐƯỜNG</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>121023</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>289111</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Rounded Rectangle 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9265023" y="0"/>
+          <a:ext cx="1387288" cy="851647"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CỔNG</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Công</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Ty</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>182095</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>121585</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>379039</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113741</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Rectangle 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6887695" y="1645585"/>
+          <a:ext cx="2635344" cy="3040156"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>176441</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>9097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>400959</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>10329</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13587641" y="7248097"/>
+          <a:ext cx="2662918" cy="3239732"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>574399</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>88453</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>171864</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>47040</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Rounded Rectangle 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8499199" y="14185453"/>
+          <a:ext cx="3255065" cy="720587"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1"/>
+            <a:t>Mặt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="2400" b="1" baseline="0"/>
+            <a:t> trời mọc</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="2400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>506879</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>146050</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2988</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Rectangle 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9650879" y="7742464"/>
+          <a:ext cx="2687171" cy="2738024"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>552384</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>188555</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>584667</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>166783</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Rectangle 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9696384" y="10285055"/>
+          <a:ext cx="641883" cy="168728"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>Tủ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="800" baseline="0"/>
+            <a:t> + Thờ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581853</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>170866</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>63581</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>23509</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Rounded Rectangle 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725853" y="7600366"/>
+          <a:ext cx="700928" cy="233643"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>CỬA</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21665</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>21665</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>2988</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Straight Connector 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="18" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10994465" y="7742464"/>
+          <a:ext cx="0" cy="2738024"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>32102</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>107517</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>155692</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>117417</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="Straight Connector 21"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="11004902" y="9061017"/>
+          <a:ext cx="1342790" cy="9900"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>316948</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>184978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>469348</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>140528</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Oval 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9460948" y="8947978"/>
+          <a:ext cx="152400" cy="146050"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>66262</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>7284</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>438979</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>98392</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Rectangular Callout 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8600662" y="8389284"/>
+          <a:ext cx="982317" cy="281608"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 41557"/>
+            <a:gd name="adj2" fmla="val 140589"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Giếng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> khoan</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>72474</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>25261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>267943</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>50109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Rectangle 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9826074" y="6121261"/>
+          <a:ext cx="195469" cy="405848"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>327993</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>187016</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>91110</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>87624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Rectangular Callout 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10691193" y="6092516"/>
+          <a:ext cx="982317" cy="281608"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -117267"/>
+            <a:gd name="adj2" fmla="val 34707"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Hòn</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> non bộ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>123824</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>20705</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Oval 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12611099" y="7343774"/>
+          <a:ext cx="314325" cy="296931"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:schemeClr val="accent4"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:fillRef>
+        <a:effectRef idx="3">
+          <a:schemeClr val="accent4"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266287</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>29404</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>69817</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Rectangular Callout 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13067887" y="6410325"/>
+          <a:ext cx="982317" cy="517492"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -70922"/>
+            <a:gd name="adj2" fmla="val 137695"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Giếng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> đào</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Chứa rác)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>474229</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>18008</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="29" name="Rounded Rectangle 28"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13885429" y="5542508"/>
+          <a:ext cx="1602221" cy="534441"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Đất</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> cũ</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>Đã bán</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>37059</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>51206</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Rounded Rectangle 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11096625" y="8228559"/>
+          <a:ext cx="1146581" cy="343941"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Phòng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ngủ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>189459</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>60731</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Rounded Rectangle 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11106150" y="9523959"/>
+          <a:ext cx="1146581" cy="343941"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Phòng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> ngủ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>275860</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>160682</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152035</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>65942</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="Rectangle 31"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11830418" y="11971682"/>
+          <a:ext cx="484309" cy="476760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>WC</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>268533</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>132839</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>144708</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>142365</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="Rectangle 33"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11823091" y="12515339"/>
+          <a:ext cx="484309" cy="771526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1"/>
+            <a:t>Kho</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511341</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21980</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>90645</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="Rounded Rectangle 34"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11928819" y="11398560"/>
+          <a:ext cx="461597" cy="187438"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>BẾP</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>205751</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>11571</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>337038</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>36635</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Rounded Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11622921" y="12150459"/>
+          <a:ext cx="406064" cy="131287"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>CỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>199179</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>102679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>339983</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>172495</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="Rounded Rectangle 36"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11598731" y="12830685"/>
+          <a:ext cx="450816" cy="140804"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>CỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>607026</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>88577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>564819</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="39" name="Rounded Rectangle 38"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10337180" y="11899577"/>
+          <a:ext cx="565927" cy="123904"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1"/>
+            <a:t>Cử</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" baseline="0"/>
+            <a:t>a sổ</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>532092</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>93484</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>97210</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35676</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="Rounded Rectangle 39"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11916430" y="10741204"/>
+          <a:ext cx="513692" cy="173252"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>330781</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>117232</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>300403</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122425</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="41" name="Rectangular Callout 40"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11277204" y="10594732"/>
+          <a:ext cx="577757" cy="195693"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 90404"/>
+            <a:gd name="adj2" fmla="val 26344"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tủ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chén</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>154874</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>457054</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>119986</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Rounded Rectangle 41"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11101297" y="11745058"/>
+          <a:ext cx="302180" cy="185928"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>603737</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>43963</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>39965</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>27363</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Rectangular Callout 42"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10333891" y="11283463"/>
+          <a:ext cx="652497" cy="173900"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 79679"/>
+            <a:gd name="adj2" fmla="val 212592"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tủ Lạnh</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>114532</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>4477</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>168520</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>91199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Rounded Rectangle 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="12165607" y="11355594"/>
+          <a:ext cx="277222" cy="53988"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="900" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>560496</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>163390</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>113235</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>168519</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="45" name="Rectangular Callout 44"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12723188" y="11402890"/>
+          <a:ext cx="769009" cy="195629"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93156"/>
+            <a:gd name="adj2" fmla="val -37058"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Cửa sổ?</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>608887</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>141408</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>486432</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>115016</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="46" name="Rounded Rectangle 45"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10362487" y="10428408"/>
+          <a:ext cx="487145" cy="164108"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000"/>
+            <a:t>CỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>439614</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>153868</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>608134</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>162931</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Rounded Rectangle 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9450861" y="10932640"/>
+          <a:ext cx="390063" cy="168520"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>CỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>512885</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>116160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>133580</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>114769</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="11783235" y="11412733"/>
+          <a:ext cx="189109" cy="836964"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="002060"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>549518</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>151364</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>441222</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="52" name="Rounded Rectangle 51"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11495941" y="11771864"/>
+          <a:ext cx="499839" cy="119732"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166084</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>14654</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>241788</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>175846</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="53" name="Rectangular Callout 52"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11112507" y="11254154"/>
+          <a:ext cx="683839" cy="161192"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 62374"/>
+            <a:gd name="adj2" fmla="val 272965"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Rửa chén</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>153441</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="54" name="Rounded Rectangle 53"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8983435" y="13144500"/>
+          <a:ext cx="2132239" cy="343941"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFC000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Tham khảo</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" i="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> bát quái hình bên</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1200" b="1" i="1">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>124810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="55" name="Straight Arrow Connector 54"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12533586" y="7744810"/>
+          <a:ext cx="0" cy="2745828"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>525516</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>59120</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>137948</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>85397</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="56" name="Straight Arrow Connector 55"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="9669516" y="7488620"/>
+          <a:ext cx="2660432" cy="26277"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>10510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>341586</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Straight Arrow Connector 56"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9485586" y="10488010"/>
+          <a:ext cx="0" cy="1503965"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>498231</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>135548</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>100379</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="58" name="Straight Arrow Connector 57"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9620250" y="12096750"/>
+          <a:ext cx="2677990" cy="5129"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>172435</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>198711</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>51288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Straight Arrow Connector 58"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12360519" y="11983435"/>
+          <a:ext cx="884" cy="450353"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>197827</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>148912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>201025</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>117231</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="60" name="Straight Arrow Connector 59"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="12360519" y="12531412"/>
+          <a:ext cx="3198" cy="730319"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>265697</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>50903</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>150395</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>55916</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="61" name="Straight Arrow Connector 60"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="11820255" y="13385903"/>
+          <a:ext cx="492832" cy="5013"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:headEnd type="triangle"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>11906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>267891</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="62" name="Oval 61"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11600260" y="7250906"/>
+          <a:ext cx="250031" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>416719</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>5953</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>59531</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Oval 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12608719" y="8387953"/>
+          <a:ext cx="252412" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>B</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>17860</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>41672</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>267891</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>35719</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="64" name="Oval 63"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9161860" y="10900172"/>
+          <a:ext cx="250031" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>C</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>46709</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>151577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297656</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>145624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="65" name="Oval 64"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10993132" y="12153077"/>
+          <a:ext cx="250947" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>D</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>303610</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>154782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>553641</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>148829</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="Oval 65"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12495610" y="12346782"/>
+          <a:ext cx="250031" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>E</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>309563</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>63196</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>559594</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>57243</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Oval 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12472255" y="12826696"/>
+          <a:ext cx="250031" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>F</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>398860</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>141045</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>41672</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>135092</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="68" name="Oval 67"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11953418" y="13476045"/>
+          <a:ext cx="250946" cy="184547"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>G</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>23097</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>470600</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Rounded Rectangle 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753251" y="11884269"/>
+          <a:ext cx="447503" cy="139212"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="C00000"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="800"/>
+            <a:t>CỬA</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>477257</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>139212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>87923</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>73269</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="70" name="Rounded Rectangle 69"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12031815" y="11759712"/>
+          <a:ext cx="218800" cy="124557"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B0F0"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="900" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>465246</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>17985</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>131885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="71" name="Rectangular Callout 70"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12627938" y="11767038"/>
+          <a:ext cx="769009" cy="366347"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val -93156"/>
+            <a:gd name="adj2" fmla="val -37058"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="0070C0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Tủ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> chén</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>(Gổ)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="lt1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -12420,7 +16815,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="I40" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="I49" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="V38" sqref="V38"/>
     </sheetView>
   </sheetViews>
@@ -12438,7 +16833,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="H56" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" topLeftCell="H29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Y71" sqref="Y71"/>
     </sheetView>
   </sheetViews>
@@ -12448,4 +16843,61 @@
   <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="X58:Y62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" topLeftCell="J51" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W67" sqref="W67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="58" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X58" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X59" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X60" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X61" t="s">
+        <v>6</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62" spans="24:25" x14ac:dyDescent="0.25">
+      <c r="X62" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
+  <pageSetup scale="53" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>